--- a/tables/localization-text-table.xlsx
+++ b/tables/localization-text-table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rococo\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48F4B8-294B-4FC4-83A2-DD7A751B65DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10350CD4-6E5D-43EE-B9A3-E93B62F89AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00195B25-CB3D-43E0-A5F7-350564E66F68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>string</t>
   </si>
@@ -117,6 +117,72 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Prinzen, die nach Parteien und Freunden streben
+Ehrgeizig für Herrschaft und Herrschaft,
+Wisse, dass die Menschen in Rom, für die wir stehen
+Eine besondere Party, haben, mit gemeinsamer Stimme,
+Bei der Wahl zum römischen Kaisertum
+Auserwählter Andronicus, Beiname Pius
+Für viele gute und große Wüsten nach Rom:
+Ein edlerer Mann, ein tapferer Krieger,
+Lebt heute nicht innerhalb der Stadtmauern:
+Er wird vom Senat nach Hause geschickt
+Von müden Kriegen gegen die barbarischen Goten;
+Das mit seinen Söhnen ein Schrecken für unsere Feinde,
+Hat ein starkes Volk unterjocht, zu Waffen erzogen.
+Zehn Jahre sind seit dem ersten Unterfangen vergangen
+Diese Ursache von Rom und mit Waffen gezüchtigt
+Der Stolz unserer Feinde: fünfmal ist er zurückgekehrt
+Nach Rom blutend, seine tapferen Söhne tragend
+In Särgen vom Feld;
+Und nun endlich, beladen mit Schreckensbeute,
+Bringt den guten Andronicus nach Rom zurück,
+Der berühmte Titus, der in Waffen blüht.
+Lasst uns zu Ehren seines Namens bitten,
+Wem würdig hättest du jetzt Erfolg gehabt.
+Und rechts vom Kapitol und Senat
+Wen du vorgibst zu ehren und zu verehren,
+Dass du dich zurückziehst und deine Kraft nachlässt;
+Entlassen Sie Ihre Anhänger und, wie es Bewerber tun sollten,
+Verteidige deine Wüsten in Frieden und Demut.</t>
+  </si>
+  <si>
+    <t>Localization Table</t>
+  </si>
+  <si>
+    <t>Mark Anthony Taylor</t>
+  </si>
+  <si>
+    <t>tables\localized-text-table.h</t>
+  </si>
+  <si>
+    <t>tables\localized-text-table.cpp</t>
+  </si>
+  <si>
+    <t>ILocalizedText</t>
+  </si>
+  <si>
+    <t>LocalizedText</t>
+  </si>
+  <si>
+    <t>Rococo.Strings</t>
+  </si>
+  <si>
+    <t>Introduction_MarcusAndronicus</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>tables\rococo.tables.test.sxh</t>
+  </si>
+  <si>
+    <t>Sexy Header</t>
   </si>
   <si>
     <t>Princes, that strive by factions and by friends
@@ -147,66 +213,6 @@
 That you withdraw you and abate your strength;
 Dismiss your followers and, as suitors should,
 Plead your deserts in peace and humbleness.</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Prinzen, die nach Parteien und Freunden streben
-Ehrgeizig für Herrschaft und Herrschaft,
-Wisse, dass die Menschen in Rom, für die wir stehen
-Eine besondere Party, haben, mit gemeinsamer Stimme,
-Bei der Wahl zum römischen Kaisertum
-Auserwählter Andronicus, Beiname Pius
-Für viele gute und große Wüsten nach Rom:
-Ein edlerer Mann, ein tapferer Krieger,
-Lebt heute nicht innerhalb der Stadtmauern:
-Er wird vom Senat nach Hause geschickt
-Von müden Kriegen gegen die barbarischen Goten;
-Das mit seinen Söhnen ein Schrecken für unsere Feinde,
-Hat ein starkes Volk unterjocht, zu Waffen erzogen.
-Zehn Jahre sind seit dem ersten Unterfangen vergangen
-Diese Ursache von Rom und mit Waffen gezüchtigt
-Der Stolz unserer Feinde: fünfmal ist er zurückgekehrt
-Nach Rom blutend, seine tapferen Söhne tragend
-In Särgen vom Feld;
-Und nun endlich, beladen mit Schreckensbeute,
-Bringt den guten Andronicus nach Rom zurück,
-Der berühmte Titus, der in Waffen blüht.
-Lasst uns zu Ehren seines Namens bitten,
-Wem würdig hättest du jetzt Erfolg gehabt.
-Und rechts vom Kapitol und Senat
-Wen du vorgibst zu ehren und zu verehren,
-Dass du dich zurückziehst und deine Kraft nachlässt;
-Entlassen Sie Ihre Anhänger und, wie es Bewerber tun sollten,
-Verteidige deine Wüsten in Frieden und Demut.</t>
-  </si>
-  <si>
-    <t>Localization Table</t>
-  </si>
-  <si>
-    <t>Mark Anthony Taylor</t>
-  </si>
-  <si>
-    <t>tables\localized-text-table.h</t>
-  </si>
-  <si>
-    <t>tables\localized-text-table.cpp</t>
-  </si>
-  <si>
-    <t>ILocalizedText</t>
-  </si>
-  <si>
-    <t>LocalizedText</t>
-  </si>
-  <si>
-    <t>Rococo.Strings</t>
-  </si>
-  <si>
-    <t>Introduction_MarcusAndronicus</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -673,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -689,7 +695,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,23 +724,23 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +754,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +845,15 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/tables/localization-text-table.xlsx
+++ b/tables/localization-text-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rococo\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10350CD4-6E5D-43EE-B9A3-E93B62F89AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2D2170-D060-490E-8877-D8161781FC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00195B25-CB3D-43E0-A5F7-350564E66F68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00195B25-CB3D-43E0-A5F7-350564E66F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sexcel-Spec" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>string</t>
   </si>
@@ -177,12 +177,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>tables\rococo.tables.test.sxh</t>
-  </si>
-  <si>
-    <t>Sexy Header</t>
   </si>
   <si>
     <t>Princes, that strive by factions and by friends
@@ -694,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3230684E-8A11-41FB-8526-9EA18FC7052C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -737,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -754,10 +748,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,14 +842,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
